--- a/big-data/big-data-capstone/project/data/beer_n_Jeju Pellong Ale.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Jeju Pellong Ale.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictoman(4,760)
+          <t>pictoman(4,766)
 🇨🇦Vancouver, Canada
 3.2July 4, 2022
 Poured from 500mL can (thanks Nathan). Clear-ish gold with small white head. Bready caramel malt, light citrus notes, slightly skunky and piney hops. Decent.
@@ -566,7 +566,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mcberko(36,641)
+          <t>mcberko(36,657)
 🇨🇦Vancouver, Canada
 3.2July 4, 2022
 500mL can, pours a clear bright golden with a small white head. Aroma is sort of skunky, with grass, caramel, and bready malt. Flavour is full of bready malt, a little caramel, and a touch of…
@@ -637,7 +637,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>linus(667)
+          <t>linus(668)
 4.0June 19, 2022
 Caramelly. Tea aroma. Notable hops. Light toasty malts. Mild biscuity notes. Kinda like an English pale ale. Quite tasty. Enjoyable.
 CAN
